--- a/data/trans_dic/P14_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,78</t>
+          <t>2,0; 4,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,26</t>
+          <t>6,23; 10,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,17</t>
+          <t>2,52; 5,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,5</t>
+          <t>6,58; 10,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,34</t>
+          <t>2,57; 4,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,13</t>
+          <t>6,9; 9,97</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,98</t>
+          <t>1,47; 4,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,18</t>
+          <t>4,78; 9,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,06</t>
+          <t>1,59; 4,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,61</t>
+          <t>4,85; 8,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,52</t>
+          <t>1,77; 3,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,21</t>
+          <t>5,4; 8,21</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,64</t>
+          <t>0,7; 7,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 14,37</t>
+          <t>3,77; 13,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 15,61</t>
+          <t>0,64; 5,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 10,36</t>
+          <t>3,21; 10,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,47</t>
+          <t>1,23; 5,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,53</t>
+          <t>4,44; 10,18</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,83</t>
+          <t>2,16; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,37</t>
+          <t>6,14; 9,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,7</t>
+          <t>2,34; 4,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,83</t>
+          <t>6,23; 8,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,99</t>
+          <t>2,4; 3,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,6</t>
+          <t>6,54; 8,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52082</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>135851</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65567</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>150654</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>117649</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>286505</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>33075; 78737</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>102352; 173274</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45668; 92500</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>119325; 188530</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>88892; 155005</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>238511; 344640</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35574</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93013</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37569</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>91654</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>184668</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20145; 58097</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65729; 126808</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22056; 62385</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66546; 122585</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48943; 102404</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>148384; 225478</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12370</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30505</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9965</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22335</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2965; 30583</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15929; 57805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2648; 24026</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13146; 44121</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10307; 43327</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36946; 84732</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>259370</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>113101</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>267734</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>213127</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>527104</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74433; 140136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>211307; 314600</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>84480; 146363</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>223825; 311852</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>169401; 263934</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>460196; 593352</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>